--- a/resources/ExcelsheetData/SubsetModuleTest.xlsx
+++ b/resources/ExcelsheetData/SubsetModuleTest.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="createSubsets" sheetId="1" r:id="rId1"/>
     <sheet name="TC_Subset_01" sheetId="2" r:id="rId2"/>
-    <sheet name="TC_Subset_08" sheetId="3" r:id="rId3"/>
-    <sheet name="TC_Subset_09" sheetId="4" r:id="rId4"/>
-    <sheet name="TC_Subset_10" sheetId="5" r:id="rId5"/>
-    <sheet name="TC_Subset_11" sheetId="6" r:id="rId6"/>
-    <sheet name="TC_Subset_12" sheetId="7" r:id="rId7"/>
+    <sheet name="TC_Subset_02" sheetId="8" r:id="rId3"/>
+    <sheet name="TC_Subset_08" sheetId="3" r:id="rId4"/>
+    <sheet name="TC_Subset_09" sheetId="4" r:id="rId5"/>
+    <sheet name="TC_Subset_10" sheetId="5" r:id="rId6"/>
+    <sheet name="TC_Subset_11" sheetId="6" r:id="rId7"/>
+    <sheet name="TC_Subset_12" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>Sl. No</t>
   </si>
@@ -92,6 +93,24 @@
   </si>
   <si>
     <t>removed Successfully</t>
+  </si>
+  <si>
+    <t>AutomationTestSubset</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>automationUser</t>
+  </si>
+  <si>
+    <t>unilog123##</t>
+  </si>
+  <si>
+    <t>userName</t>
   </si>
 </sst>
 </file>
@@ -588,51 +607,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -643,32 +676,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -732,7 +820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -767,7 +855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -816,11 +904,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/resources/ExcelsheetData/SubsetModuleTest.xlsx
+++ b/resources/ExcelsheetData/SubsetModuleTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="createSubsets" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="TC_Subset_10" sheetId="5" r:id="rId6"/>
     <sheet name="TC_Subset_11" sheetId="6" r:id="rId7"/>
     <sheet name="TC_Subset_12" sheetId="7" r:id="rId8"/>
+    <sheet name="TC_Subset_24" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>Sl. No</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Update Message</t>
   </si>
   <si>
-    <t>Auto_EditSubset1</t>
-  </si>
-  <si>
     <t>Updated Successfully</t>
   </si>
   <si>
@@ -83,12 +81,6 @@
     <t>Brand Name</t>
   </si>
   <si>
-    <t>Automation_Manu001_Brand001</t>
-  </si>
-  <si>
-    <t>Automation_Manufacturer_001</t>
-  </si>
-  <si>
     <t>saveMessage</t>
   </si>
   <si>
@@ -111,6 +103,30 @@
   </si>
   <si>
     <t>userName</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>TC_Subset_09</t>
+  </si>
+  <si>
+    <t>AutomationTestSubsetEdit</t>
+  </si>
+  <si>
+    <t>unilog123#</t>
+  </si>
+  <si>
+    <t>AutomationTestManufacturer</t>
+  </si>
+  <si>
+    <t>AutomationTestBrand</t>
+  </si>
+  <si>
+    <t>TC_Subset_24</t>
   </si>
 </sst>
 </file>
@@ -133,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,12 +196,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -651,13 +674,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -693,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -736,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -750,13 +773,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -766,22 +789,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,16 +813,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -806,13 +839,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -822,32 +864,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -857,46 +913,60 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -906,53 +976,109 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ExcelsheetData/SubsetModuleTest.xlsx
+++ b/resources/ExcelsheetData/SubsetModuleTest.xlsx
@@ -4,25 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="createSubsets" sheetId="1" r:id="rId1"/>
-    <sheet name="TC_Subset_01" sheetId="2" r:id="rId2"/>
-    <sheet name="TC_Subset_02" sheetId="8" r:id="rId3"/>
-    <sheet name="TC_Subset_08" sheetId="3" r:id="rId4"/>
-    <sheet name="TC_Subset_09" sheetId="4" r:id="rId5"/>
-    <sheet name="TC_Subset_10" sheetId="5" r:id="rId6"/>
-    <sheet name="TC_Subset_11" sheetId="6" r:id="rId7"/>
-    <sheet name="TC_Subset_12" sheetId="7" r:id="rId8"/>
-    <sheet name="TC_Subset_24" sheetId="9" r:id="rId9"/>
+    <sheet name="tc_Subset_001_004_005" sheetId="10" r:id="rId2"/>
+    <sheet name="TC_Subset_08" sheetId="3" r:id="rId3"/>
+    <sheet name="TC_Subset_09" sheetId="4" r:id="rId4"/>
+    <sheet name="TC_Subset_10" sheetId="5" r:id="rId5"/>
+    <sheet name="tc_Subset_006_003_008_009" sheetId="11" r:id="rId6"/>
+    <sheet name="tc_Subset_010" sheetId="15" r:id="rId7"/>
+    <sheet name="TC_Subset_11" sheetId="6" r:id="rId8"/>
+    <sheet name="TC_Subset_12" sheetId="7" r:id="rId9"/>
+    <sheet name="TC_Subset_24" sheetId="9" r:id="rId10"/>
+    <sheet name="tc_Subset_002" sheetId="12" r:id="rId11"/>
+    <sheet name="tc_Subset_007" sheetId="13" r:id="rId12"/>
+    <sheet name="creationData" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
   <si>
     <t>Sl. No</t>
   </si>
@@ -127,13 +131,115 @@
   </si>
   <si>
     <t>TC_Subset_24</t>
+  </si>
+  <si>
+    <t>testCaseId</t>
+  </si>
+  <si>
+    <t>HeaderList</t>
+  </si>
+  <si>
+    <t>Action,Sl No.,Subset Id,Subset Name,Subset Description,Purpose,Status</t>
+  </si>
+  <si>
+    <t>Enter Subset Name to Search</t>
+  </si>
+  <si>
+    <t>PlaceHolder Text</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>No results Found</t>
+  </si>
+  <si>
+    <t>Add New Subset Field</t>
+  </si>
+  <si>
+    <t>* Subset Name,Subset Description,Purpose,Status,Banner Text</t>
+  </si>
+  <si>
+    <t>TC_Subset_001_004_005</t>
+  </si>
+  <si>
+    <t>DeleteAutoMation</t>
+  </si>
+  <si>
+    <t>Subset Save Message</t>
+  </si>
+  <si>
+    <t>Updated Subsetname</t>
+  </si>
+  <si>
+    <t>DeleteAutomation3</t>
+  </si>
+  <si>
+    <t>editFieldOfSubset</t>
+  </si>
+  <si>
+    <t>Subset Name *,Subset Description,Purpose *,Status,Banner Text</t>
+  </si>
+  <si>
+    <t>TC_Subset_002</t>
+  </si>
+  <si>
+    <t>TC_Subset_007</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Required Message</t>
+  </si>
+  <si>
+    <t>Subset Name required</t>
+  </si>
+  <si>
+    <t>AutomationCreation</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Welcome Message</t>
+  </si>
+  <si>
+    <t>Welcome, Automation !</t>
+  </si>
+  <si>
+    <t>TC_Subset_006_003_008_009</t>
+  </si>
+  <si>
+    <t>TC_Subset_010</t>
+  </si>
+  <si>
+    <t>AllItem Tab</t>
+  </si>
+  <si>
+    <t>ExcludedItem Tab</t>
+  </si>
+  <si>
+    <t>additionalItem Tab</t>
+  </si>
+  <si>
+    <t>All Items</t>
+  </si>
+  <si>
+    <t>Excluded Items</t>
+  </si>
+  <si>
+    <t>Additional Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +254,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +278,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,13 +321,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,9 +757,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
@@ -638,93 +767,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -738,7 +799,203 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -787,7 +1044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -862,7 +1119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -911,12 +1168,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +1320,7 @@
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -974,7 +1370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1042,46 +1438,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/ExcelsheetData/SubsetModuleTest.xlsx
+++ b/resources/ExcelsheetData/SubsetModuleTest.xlsx
@@ -4,25 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="createSubsets" sheetId="1" r:id="rId1"/>
-    <sheet name="TC_Subset_01" sheetId="2" r:id="rId2"/>
-    <sheet name="TC_Subset_02" sheetId="8" r:id="rId3"/>
-    <sheet name="TC_Subset_08" sheetId="3" r:id="rId4"/>
-    <sheet name="TC_Subset_09" sheetId="4" r:id="rId5"/>
-    <sheet name="TC_Subset_10" sheetId="5" r:id="rId6"/>
-    <sheet name="TC_Subset_11" sheetId="6" r:id="rId7"/>
-    <sheet name="TC_Subset_12" sheetId="7" r:id="rId8"/>
-    <sheet name="TC_Subset_24" sheetId="9" r:id="rId9"/>
+    <sheet name="tc_Subset_001_004_005" sheetId="10" r:id="rId2"/>
+    <sheet name="TC_Subset_08" sheetId="3" r:id="rId3"/>
+    <sheet name="TC_Subset_09" sheetId="4" r:id="rId4"/>
+    <sheet name="TC_Subset_10" sheetId="5" r:id="rId5"/>
+    <sheet name="tc_Subset_006_003_008_009" sheetId="11" r:id="rId6"/>
+    <sheet name="tc_Subset_010" sheetId="15" r:id="rId7"/>
+    <sheet name="tc_Subset_011_012" sheetId="6" r:id="rId8"/>
+    <sheet name="TC_Subset_12" sheetId="7" r:id="rId9"/>
+    <sheet name="TC_Subset_24" sheetId="9" r:id="rId10"/>
+    <sheet name="tc_Subset_002" sheetId="12" r:id="rId11"/>
+    <sheet name="tc_Subset_007" sheetId="13" r:id="rId12"/>
+    <sheet name="creationData" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
     <t>Sl. No</t>
   </si>
@@ -127,13 +131,151 @@
   </si>
   <si>
     <t>TC_Subset_24</t>
+  </si>
+  <si>
+    <t>testCaseId</t>
+  </si>
+  <si>
+    <t>HeaderList</t>
+  </si>
+  <si>
+    <t>Action,Sl No.,Subset Id,Subset Name,Subset Description,Purpose,Status</t>
+  </si>
+  <si>
+    <t>Enter Subset Name to Search</t>
+  </si>
+  <si>
+    <t>PlaceHolder Text</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>No results Found</t>
+  </si>
+  <si>
+    <t>Add New Subset Field</t>
+  </si>
+  <si>
+    <t>* Subset Name,Subset Description,Purpose,Status,Banner Text</t>
+  </si>
+  <si>
+    <t>TC_Subset_001_004_005</t>
+  </si>
+  <si>
+    <t>DeleteAutoMation</t>
+  </si>
+  <si>
+    <t>Subset Save Message</t>
+  </si>
+  <si>
+    <t>Updated Subsetname</t>
+  </si>
+  <si>
+    <t>DeleteAutomation3</t>
+  </si>
+  <si>
+    <t>editFieldOfSubset</t>
+  </si>
+  <si>
+    <t>Subset Name *,Subset Description,Purpose *,Status,Banner Text</t>
+  </si>
+  <si>
+    <t>TC_Subset_002</t>
+  </si>
+  <si>
+    <t>TC_Subset_007</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Required Message</t>
+  </si>
+  <si>
+    <t>Subset Name required</t>
+  </si>
+  <si>
+    <t>AutomationCreation</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Welcome Message</t>
+  </si>
+  <si>
+    <t>Welcome, Automation !</t>
+  </si>
+  <si>
+    <t>TC_Subset_006_003_008_009</t>
+  </si>
+  <si>
+    <t>TC_Subset_010</t>
+  </si>
+  <si>
+    <t>AllItem Tab</t>
+  </si>
+  <si>
+    <t>ExcludedItem Tab</t>
+  </si>
+  <si>
+    <t>additionalItem Tab</t>
+  </si>
+  <si>
+    <t>All Items</t>
+  </si>
+  <si>
+    <t>Excluded Items</t>
+  </si>
+  <si>
+    <t>Additional Items</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Selected Tab Field</t>
+  </si>
+  <si>
+    <t>Action,ENTITY NAME,ENTITY TYPE</t>
+  </si>
+  <si>
+    <t>Sample subset by automation team</t>
+  </si>
+  <si>
+    <t>Brand Count</t>
+  </si>
+  <si>
+    <t>Manufacturer Count</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>messageOfCount</t>
+  </si>
+  <si>
+    <t>1 Brand(s) , 1 Manufacturer Saved In Rules</t>
+  </si>
+  <si>
+    <t>DeleteAutoMation3</t>
+  </si>
+  <si>
+    <t>TC_Subset_011_012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +290,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +314,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,13 +357,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,9 +794,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
@@ -638,93 +804,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -738,7 +836,203 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -787,7 +1081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -862,7 +1156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -911,62 +1205,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -975,6 +1345,98 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1042,46 +1504,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/ExcelsheetData/SubsetModuleTest.xlsx
+++ b/resources/ExcelsheetData/SubsetModuleTest.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="tc_Subset_001_004_005" sheetId="10" r:id="rId1"/>
     <sheet name="tc_Subset_006_003_008_009" sheetId="11" r:id="rId2"/>
     <sheet name="tc_Subset_010" sheetId="15" r:id="rId3"/>
-    <sheet name="tc_Subset_011_012" sheetId="6" r:id="rId4"/>
+    <sheet name="tc_Subset_011_012_013" sheetId="6" r:id="rId4"/>
     <sheet name="tc_Subset_014" sheetId="16" r:id="rId5"/>
     <sheet name="tc_Subset_002" sheetId="12" r:id="rId6"/>
     <sheet name="tc_Subset_007" sheetId="13" r:id="rId7"/>
-    <sheet name="tc_Subset_016" sheetId="17" r:id="rId8"/>
+    <sheet name="tc_Subset_015_016" sheetId="17" r:id="rId8"/>
     <sheet name="tc_Subset_017" sheetId="18" r:id="rId9"/>
-    <sheet name="tc_Subset_018_019_021" sheetId="19" r:id="rId10"/>
-    <sheet name="tc_Subset_022" sheetId="21" r:id="rId11"/>
-    <sheet name="tc_Subset_023" sheetId="22" r:id="rId12"/>
-    <sheet name="tc_Subset_020" sheetId="20" r:id="rId13"/>
-    <sheet name="creationData" sheetId="23" r:id="rId14"/>
+    <sheet name="tc_Subset_021" sheetId="25" r:id="rId10"/>
+    <sheet name="tc_Subset_018_019" sheetId="24" r:id="rId11"/>
+    <sheet name="tc_Subset_022" sheetId="21" r:id="rId12"/>
+    <sheet name="tc_Subset_023" sheetId="22" r:id="rId13"/>
+    <sheet name="tc_Subset_020" sheetId="20" r:id="rId14"/>
+    <sheet name="creationData" sheetId="23" r:id="rId15"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
   <si>
     <t>Subset Name</t>
   </si>
@@ -257,9 +258,6 @@
     <t>078371-11816</t>
   </si>
   <si>
-    <t>TC_Subset_018_019_021</t>
-  </si>
-  <si>
     <t>TC_Subset_022</t>
   </si>
   <si>
@@ -303,6 +301,15 @@
   </si>
   <si>
     <t>Invalid SubsetName</t>
+  </si>
+  <si>
+    <t>DeleteAutomation2</t>
+  </si>
+  <si>
+    <t>TC_Subset_018_019</t>
+  </si>
+  <si>
+    <t>TC_Subset_021</t>
   </si>
 </sst>
 </file>
@@ -695,7 +702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -718,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>16</v>
@@ -757,19 +766,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,7 +802,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
@@ -814,7 +822,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>63</v>
@@ -834,11 +842,52 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -857,15 +906,15 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -895,27 +944,27 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -923,12 +972,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,11 +1007,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -984,16 +1033,16 @@
         <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,7 +1053,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -1025,7 +1074,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,10 +1116,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1079,7 +1128,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1096,7 +1145,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1187,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>43</v>
@@ -1165,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1220,7 +1269,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>43</v>
@@ -1258,7 +1307,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1361,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>43</v>
@@ -1418,9 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1461,7 +1508,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>43</v>
@@ -1489,7 +1536,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1578,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>43</v>
